--- a/Datos/Database by set/Set with text box/Xlsx sets/Wizards Play Network 2010 (PWP10).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Wizards Play Network 2010 (PWP10).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,350 +444,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Curse of Wizardry</t>
+          <t>('Curse of Wizardry', ['{2}{B}{B}', 'Enchantment', 'As Curse of Wizardry enters the battlefield, choose a color.', 'Whenever a player casts a spell of the chosen color, that player loses 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{B}{B}</t>
+          <t>('Fling', ['{1}{R}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Fling deals damage equal to the sacrificed creature’s power to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Enchantment</t>
+          <t>("Golem's Heart", ['{2}', 'Artifact', 'Whenever a player casts an artifact spell, you may gain 1 life.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>As Curse of Wizardry enters the battlefield, choose a color.</t>
+          <t>('Kor Firewalker', ['{W}{W}', 'Creature — Kor Soldier', 'Protection from red', 'Whenever a player casts a red spell, you may gain 1 life.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Whenever a player casts a spell of the chosen color, that player loses 1 life.</t>
+          <t>('Leatherback Baloth', ['{G}{G}{G}', 'Creature — Beast', '4/5'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fling</t>
+          <t>('Pathrazer of Ulamog', ['{11}', 'Creature — Eldrazi', 'Annihilator 3 (Whenever this creature attacks, defending player sacrifices three permanents.)', 'Pathrazer of Ulamog can’t be blocked except by three or more creatures.', '9/9'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{1}{R}</t>
+          <t>('Plague Stinger', ['{1}{B}', 'Creature — Insect Horror', 'Flying', 'Infect (This creature deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Skinrender', ['{2}{B}{B}', 'Creature — Zombie', 'When Skinrender enters the battlefield, put three -1/-1 counters on target creature.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>As an additional cost to cast this spell, sacrifice a creature.</t>
+          <t>('Sylvan Ranger', ['{1}{G}', 'Creature — Elf Scout', 'When Sylvan Ranger enters the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fling deals damage equal to the sacrificed creature’s power to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Golem's Heart</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Whenever a player casts an artifact spell, you may gain 1 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Kor Firewalker</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Creature — Kor Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Protection from red</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Whenever a player casts a red spell, you may gain 1 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Leatherback Baloth</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{G}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>4/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Pathrazer of Ulamog</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{11}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Creature — Eldrazi</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Annihilator 3 (Whenever this creature attacks, defending player sacrifices three permanents.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Pathrazer of Ulamog can’t be blocked except by three or more creatures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>9/9</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Plague Stinger</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Creature — Insect Horror</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Infect (This creature deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Skinrender</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{2}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>When Skinrender enters the battlefield, put three -1/-1 counters on target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Sylvan Ranger</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Creature — Elf Scout</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>When Sylvan Ranger enters the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Syphon Mind</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>{3}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Each other player discards a card. You draw a card for each card discarded this way.</t>
+          <t>('Syphon Mind', ['{3}{B}', 'Sorcery', 'Each other player discards a card. You draw a card for each card discarded this way.'])</t>
         </is>
       </c>
     </row>
